--- a/natmiOut/OldD0/LR-pairs_lrc2p/Nlgn3-Nrxn2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Nlgn3-Nrxn2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.234248778189414</v>
+        <v>0.3239616666666667</v>
       </c>
       <c r="H2">
-        <v>0.234248778189414</v>
+        <v>0.9718850000000001</v>
       </c>
       <c r="I2">
-        <v>0.1279623600093698</v>
+        <v>0.1555281019885789</v>
       </c>
       <c r="J2">
-        <v>0.1279623600093698</v>
+        <v>0.1555281019885789</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>5.69950009288507</v>
+        <v>0.039512</v>
       </c>
       <c r="N2">
-        <v>5.69950009288507</v>
+        <v>0.118536</v>
       </c>
       <c r="O2">
-        <v>0.9589701172787967</v>
+        <v>0.006183359004302676</v>
       </c>
       <c r="P2">
-        <v>0.9589701172787967</v>
+        <v>0.006183359004302677</v>
       </c>
       <c r="Q2">
-        <v>1.335100933048779</v>
+        <v>0.01280037337333334</v>
       </c>
       <c r="R2">
-        <v>1.335100933048779</v>
+        <v>0.11520336036</v>
       </c>
       <c r="S2">
-        <v>0.1227120793854569</v>
+        <v>0.0009616860898531841</v>
       </c>
       <c r="T2">
-        <v>0.1227120793854569</v>
+        <v>0.0009616860898531841</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.234248778189414</v>
+        <v>0.3239616666666667</v>
       </c>
       <c r="H3">
-        <v>0.234248778189414</v>
+        <v>0.9718850000000001</v>
       </c>
       <c r="I3">
-        <v>0.1279623600093698</v>
+        <v>0.1555281019885789</v>
       </c>
       <c r="J3">
-        <v>0.1279623600093698</v>
+        <v>0.1555281019885789</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.243855169381233</v>
+        <v>6.039054</v>
       </c>
       <c r="N3">
-        <v>0.243855169381233</v>
+        <v>18.117162</v>
       </c>
       <c r="O3">
-        <v>0.04102988272120332</v>
+        <v>0.9450708374258476</v>
       </c>
       <c r="P3">
-        <v>0.04102988272120332</v>
+        <v>0.9450708374258477</v>
       </c>
       <c r="Q3">
-        <v>0.05712277548272643</v>
+        <v>1.95642199893</v>
       </c>
       <c r="R3">
-        <v>0.05712277548272643</v>
+        <v>17.60779799037</v>
       </c>
       <c r="S3">
-        <v>0.005250280623912839</v>
+        <v>0.1469850735895989</v>
       </c>
       <c r="T3">
-        <v>0.005250280623912839</v>
+        <v>0.1469850735895989</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.911909340611727</v>
+        <v>0.3239616666666667</v>
       </c>
       <c r="H4">
-        <v>0.911909340611727</v>
+        <v>0.9718850000000001</v>
       </c>
       <c r="I4">
-        <v>0.4981459123979251</v>
+        <v>0.1555281019885789</v>
       </c>
       <c r="J4">
-        <v>0.4981459123979251</v>
+        <v>0.1555281019885789</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.69950009288507</v>
+        <v>0.3114883333333333</v>
       </c>
       <c r="N4">
-        <v>5.69950009288507</v>
+        <v>0.934465</v>
       </c>
       <c r="O4">
-        <v>0.9589701172787967</v>
+        <v>0.04874580356984966</v>
       </c>
       <c r="P4">
-        <v>0.9589701172787967</v>
+        <v>0.04874580356984967</v>
       </c>
       <c r="Q4">
-        <v>5.197427371519301</v>
+        <v>0.1009102796138889</v>
       </c>
       <c r="R4">
-        <v>5.197427371519301</v>
+        <v>0.9081925165250001</v>
       </c>
       <c r="S4">
-        <v>0.4777070440341913</v>
+        <v>0.007581342309126811</v>
       </c>
       <c r="T4">
-        <v>0.4777070440341913</v>
+        <v>0.007581342309126811</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.911909340611727</v>
+        <v>1.026996666666667</v>
       </c>
       <c r="H5">
-        <v>0.911909340611727</v>
+        <v>3.08099</v>
       </c>
       <c r="I5">
-        <v>0.4981459123979251</v>
+        <v>0.4930424144274184</v>
       </c>
       <c r="J5">
-        <v>0.4981459123979251</v>
+        <v>0.4930424144274184</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.243855169381233</v>
+        <v>0.039512</v>
       </c>
       <c r="N5">
-        <v>0.243855169381233</v>
+        <v>0.118536</v>
       </c>
       <c r="O5">
-        <v>0.04102988272120332</v>
+        <v>0.006183359004302676</v>
       </c>
       <c r="P5">
-        <v>0.04102988272120332</v>
+        <v>0.006183359004302677</v>
       </c>
       <c r="Q5">
-        <v>0.2223738067152012</v>
+        <v>0.04057869229333333</v>
       </c>
       <c r="R5">
-        <v>0.2223738067152012</v>
+        <v>0.36520823064</v>
       </c>
       <c r="S5">
-        <v>0.02043886836373368</v>
+        <v>0.003048658252752909</v>
       </c>
       <c r="T5">
-        <v>0.02043886836373368</v>
+        <v>0.003048658252752909</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.684448773508923</v>
+        <v>1.026996666666667</v>
       </c>
       <c r="H6">
-        <v>0.684448773508923</v>
+        <v>3.08099</v>
       </c>
       <c r="I6">
-        <v>0.3738917275927051</v>
+        <v>0.4930424144274184</v>
       </c>
       <c r="J6">
-        <v>0.3738917275927051</v>
+        <v>0.4930424144274184</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.69950009288507</v>
+        <v>6.039054</v>
       </c>
       <c r="N6">
-        <v>5.69950009288507</v>
+        <v>18.117162</v>
       </c>
       <c r="O6">
-        <v>0.9589701172787967</v>
+        <v>0.9450708374258476</v>
       </c>
       <c r="P6">
-        <v>0.9589701172787967</v>
+        <v>0.9450708374258477</v>
       </c>
       <c r="Q6">
-        <v>3.901015848189179</v>
+        <v>6.202088327819999</v>
       </c>
       <c r="R6">
-        <v>3.901015848189179</v>
+        <v>55.81879495038</v>
       </c>
       <c r="S6">
-        <v>0.3585509938591483</v>
+        <v>0.4659600074893822</v>
       </c>
       <c r="T6">
-        <v>0.3585509938591483</v>
+        <v>0.4659600074893822</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.684448773508923</v>
+        <v>1.026996666666667</v>
       </c>
       <c r="H7">
-        <v>0.684448773508923</v>
+        <v>3.08099</v>
       </c>
       <c r="I7">
-        <v>0.3738917275927051</v>
+        <v>0.4930424144274184</v>
       </c>
       <c r="J7">
-        <v>0.3738917275927051</v>
+        <v>0.4930424144274184</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.243855169381233</v>
+        <v>0.3114883333333333</v>
       </c>
       <c r="N7">
-        <v>0.243855169381233</v>
+        <v>0.934465</v>
       </c>
       <c r="O7">
-        <v>0.04102988272120332</v>
+        <v>0.04874580356984966</v>
       </c>
       <c r="P7">
-        <v>0.04102988272120332</v>
+        <v>0.04874580356984967</v>
       </c>
       <c r="Q7">
-        <v>0.1669063715967956</v>
+        <v>0.3198974800388888</v>
       </c>
       <c r="R7">
-        <v>0.1669063715967956</v>
+        <v>2.87907732035</v>
       </c>
       <c r="S7">
-        <v>0.01534073373355679</v>
+        <v>0.02403374868528335</v>
       </c>
       <c r="T7">
-        <v>0.01534073373355679</v>
+        <v>0.02403374868528335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.73202</v>
+      </c>
+      <c r="H8">
+        <v>2.19606</v>
+      </c>
+      <c r="I8">
+        <v>0.3514294835840027</v>
+      </c>
+      <c r="J8">
+        <v>0.3514294835840027</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.039512</v>
+      </c>
+      <c r="N8">
+        <v>0.118536</v>
+      </c>
+      <c r="O8">
+        <v>0.006183359004302676</v>
+      </c>
+      <c r="P8">
+        <v>0.006183359004302677</v>
+      </c>
+      <c r="Q8">
+        <v>0.02892357424</v>
+      </c>
+      <c r="R8">
+        <v>0.26031216816</v>
+      </c>
+      <c r="S8">
+        <v>0.002173014661696583</v>
+      </c>
+      <c r="T8">
+        <v>0.002173014661696583</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.73202</v>
+      </c>
+      <c r="H9">
+        <v>2.19606</v>
+      </c>
+      <c r="I9">
+        <v>0.3514294835840027</v>
+      </c>
+      <c r="J9">
+        <v>0.3514294835840027</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>6.039054</v>
+      </c>
+      <c r="N9">
+        <v>18.117162</v>
+      </c>
+      <c r="O9">
+        <v>0.9450708374258476</v>
+      </c>
+      <c r="P9">
+        <v>0.9450708374258477</v>
+      </c>
+      <c r="Q9">
+        <v>4.42070830908</v>
+      </c>
+      <c r="R9">
+        <v>39.78637478172001</v>
+      </c>
+      <c r="S9">
+        <v>0.3321257563468666</v>
+      </c>
+      <c r="T9">
+        <v>0.3321257563468666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.73202</v>
+      </c>
+      <c r="H10">
+        <v>2.19606</v>
+      </c>
+      <c r="I10">
+        <v>0.3514294835840027</v>
+      </c>
+      <c r="J10">
+        <v>0.3514294835840027</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.3114883333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.934465</v>
+      </c>
+      <c r="O10">
+        <v>0.04874580356984966</v>
+      </c>
+      <c r="P10">
+        <v>0.04874580356984967</v>
+      </c>
+      <c r="Q10">
+        <v>0.2280156897666666</v>
+      </c>
+      <c r="R10">
+        <v>2.0521412079</v>
+      </c>
+      <c r="S10">
+        <v>0.0171307125754395</v>
+      </c>
+      <c r="T10">
+        <v>0.01713071257543951</v>
       </c>
     </row>
   </sheetData>
